--- a/data/trans_orig/P64D$andando_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CDBFF43-27AB-4161-8EBB-29B984460FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7003C497-1F3A-4C5E-BCBB-6E1303D01724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCA5A12A-EBE7-4061-8A50-ABC6F97E68A4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5BF88C1D-B513-4CB5-843C-FB21A4CA8FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="411">
-  <si>
-    <t>Población según cómo se desplaza desde su casa al centro de trabajo/estudios en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="416">
+  <si>
+    <t>Población según cómo se desplaza desde su casa al centro de trabajo/estudios (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,1207 +65,1222 @@
     <t>Andando</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>En bicicleta</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>En vehículo particular</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>En transporte público</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>En otros medios</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>No realiza estos trayectos</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>En bicicleta</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>En vehículo particular</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>En transporte público</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>En otros medios</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>No realiza estos trayectos</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1680,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EF3B89-00C2-475B-BD26-16B7001C16BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB094576-4673-4F51-B39A-82D8592F3F3E}">
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1948,51 +1963,51 @@
         <v>57</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2001,16 +2016,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>74</v>
@@ -2118,13 +2133,13 @@
         <v>102</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2133,22 +2148,22 @@
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>110</v>
@@ -2201,31 +2216,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2318,13 +2333,13 @@
         <v>150</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2333,66 +2348,66 @@
         <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2401,7 +2416,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>171</v>
@@ -2470,10 +2485,10 @@
         <v>187</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>189</v>
@@ -2506,7 +2521,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
@@ -2515,7 +2530,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>22</v>
@@ -2524,7 +2539,7 @@
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2610,22 +2625,22 @@
         <v>217</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2634,31 +2649,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2667,31 +2682,31 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2706,7 +2721,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>22</v>
@@ -2715,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>22</v>
@@ -2724,7 +2739,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2733,66 +2748,66 @@
         <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2801,13 +2816,13 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
@@ -2816,7 +2831,7 @@
         <v>23</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>258</v>
@@ -2834,31 +2849,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2867,31 +2882,31 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2900,13 +2915,13 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
@@ -2915,16 +2930,16 @@
         <v>23</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="I38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2939,7 +2954,7 @@
         <v>23</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>22</v>
@@ -2948,7 +2963,7 @@
         <v>23</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>22</v>
@@ -2957,42 +2972,42 @@
         <v>23</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="J40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3001,31 +3016,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3034,31 +3049,31 @@
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="J42" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3067,31 +3082,31 @@
         <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3100,10 +3115,10 @@
         <v>48</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>151</v>
+        <v>308</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>310</v>
@@ -3112,19 +3127,19 @@
         <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3133,66 +3148,66 @@
         <v>53</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3201,31 +3216,31 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>97</v>
+        <v>333</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>50</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3234,31 +3249,31 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3267,31 +3282,31 @@
         <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>66</v>
+        <v>356</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3300,31 +3315,31 @@
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>353</v>
+        <v>110</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3333,31 +3348,31 @@
         <v>53</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>50</v>
+        <v>365</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3368,31 +3383,31 @@
         <v>8</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3401,31 +3416,31 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>375</v>
+        <v>139</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3434,31 +3449,31 @@
         <v>28</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3467,31 +3482,31 @@
         <v>38</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3500,31 +3515,31 @@
         <v>48</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>376</v>
+        <v>128</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>399</v>
+        <v>156</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>401</v>
+        <v>176</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>152</v>
+        <v>406</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>402</v>
+        <v>139</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>49</v>
+        <v>407</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3533,36 +3548,36 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>105</v>
+        <v>408</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>149</v>
+        <v>410</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>238</v>
+        <v>412</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>409</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
